--- a/data.xlsx
+++ b/data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7.5 s</t>
+          <t>6.4 s</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>6.4 s</t>
+          <t>6.1 s</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3,680 ms</t>
+          <t>2,610 ms</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.kwrds.ai/ is not indexed in Google.❌</t>
+          <t>https://www.kwrds.ai/ is indexed in Google. ✅</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>6.4 s</t>
+          <t>7.4 s</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>6.1 s</t>
+          <t>5.8 s</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -658,17 +658,17 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.4 s</t>
+          <t>2.3 s</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>poor ❌</t>
+          <t>needs improvement ⚠️</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2,610 ms</t>
+          <t>2,430 ms</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
